--- a/Planning Chart.xlsx
+++ b/Planning Chart.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>1주차</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>그래픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -222,6 +234,14 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -701,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -916,12 +936,117 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,109 +1056,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,8 +1359,8 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1383,23 +1406,23 @@
       <c r="B8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="79" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="78"/>
       <c r="P8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1415,48 +1438,48 @@
       <c r="Z8" s="53"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="85" t="s">
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="82" t="s">
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="82" t="s">
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="83" t="s">
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="86" t="s">
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="88"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="85"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="109"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="49" t="s">
         <v>0</v>
       </c>
@@ -1531,19 +1554,19 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="111"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="110" t="s">
+      <c r="G11" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="111"/>
+      <c r="H11" s="108"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="6"/>
@@ -1551,7 +1574,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="8"/>
       <c r="O11" s="62"/>
-      <c r="P11" s="74" t="s">
+      <c r="P11" s="109" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="9"/>
@@ -1566,12 +1589,12 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="111"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
@@ -1582,7 +1605,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
       <c r="O12" s="63"/>
-      <c r="P12" s="75"/>
+      <c r="P12" s="110"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="11"/>
       <c r="S12" s="10"/>
@@ -1595,13 +1618,13 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="100"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1611,7 +1634,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="63"/>
-      <c r="P13" s="75"/>
+      <c r="P13" s="110"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="11"/>
       <c r="S13" s="10"/>
@@ -1624,11 +1647,13 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="9"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="47"/>
+      <c r="F14" s="47" t="s">
+        <v>42</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -1640,7 +1665,7 @@
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="64"/>
-      <c r="P14" s="75"/>
+      <c r="P14" s="110"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="14"/>
       <c r="S14" s="13"/>
@@ -1653,7 +1678,7 @@
       <c r="Z14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="93" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="15"/>
@@ -1669,7 +1694,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
       <c r="O15" s="65"/>
-      <c r="P15" s="75"/>
+      <c r="P15" s="110"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="17"/>
       <c r="S15" s="16"/>
@@ -1682,7 +1707,7 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -1698,7 +1723,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="20"/>
       <c r="O16" s="66"/>
-      <c r="P16" s="75"/>
+      <c r="P16" s="110"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="20"/>
       <c r="S16" s="19"/>
@@ -1711,7 +1736,7 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -1723,9 +1748,11 @@
       <c r="K17" s="18"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="75"/>
+      <c r="N17" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="73"/>
+      <c r="P17" s="110"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="20"/>
       <c r="S17" s="19"/>
@@ -1738,23 +1765,23 @@
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="24"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="24"/>
       <c r="O18" s="67"/>
-      <c r="P18" s="75"/>
+      <c r="P18" s="110"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="24"/>
       <c r="S18" s="23"/>
@@ -1767,27 +1794,27 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="73"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
       <c r="O19" s="68"/>
-      <c r="P19" s="75"/>
+      <c r="P19" s="110"/>
       <c r="Q19" s="58"/>
       <c r="R19" s="59"/>
       <c r="S19" s="26"/>
@@ -1800,7 +1827,7 @@
       <c r="Z19" s="27"/>
     </row>
     <row r="20" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="103"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -1811,12 +1838,12 @@
       <c r="J20" s="27"/>
       <c r="K20" s="25"/>
       <c r="L20" s="26"/>
-      <c r="M20" s="72" t="s">
+      <c r="M20" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="73"/>
+      <c r="N20" s="75"/>
       <c r="O20" s="25"/>
-      <c r="P20" s="75"/>
+      <c r="P20" s="110"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="27"/>
       <c r="S20" s="26"/>
@@ -1828,8 +1855,8 @@
       <c r="Y20" s="26"/>
       <c r="Z20" s="27"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
+    <row r="21" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="100"/>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -1842,8 +1869,10 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="75"/>
+      <c r="O21" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="110"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="27"/>
       <c r="S21" s="26"/>
@@ -1856,7 +1885,7 @@
       <c r="Z21" s="27"/>
     </row>
     <row r="22" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -1870,7 +1899,7 @@
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
       <c r="O22" s="68"/>
-      <c r="P22" s="75"/>
+      <c r="P22" s="110"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="61"/>
       <c r="S22" s="26"/>
@@ -1883,7 +1912,7 @@
       <c r="Z22" s="27"/>
     </row>
     <row r="23" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="102" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="28"/>
@@ -1897,11 +1926,11 @@
       <c r="K23" s="28"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
-      <c r="N23" s="91" t="s">
+      <c r="N23" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="92"/>
-      <c r="P23" s="75"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="110"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="30"/>
       <c r="S23" s="29"/>
@@ -1914,7 +1943,7 @@
       <c r="Z23" s="30"/>
     </row>
     <row r="24" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="106"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -1930,7 +1959,7 @@
       <c r="O24" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="75"/>
+      <c r="P24" s="110"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="33"/>
       <c r="S24" s="32"/>
@@ -1943,7 +1972,7 @@
       <c r="Z24" s="33"/>
     </row>
     <row r="25" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="107"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="34"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -1957,7 +1986,7 @@
       <c r="M25" s="35"/>
       <c r="N25" s="36"/>
       <c r="O25" s="69"/>
-      <c r="P25" s="75"/>
+      <c r="P25" s="110"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="36"/>
       <c r="S25" s="35"/>
@@ -1970,7 +1999,7 @@
       <c r="Z25" s="36"/>
     </row>
     <row r="26" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="90" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="37"/>
@@ -1986,7 +2015,7 @@
       <c r="M26" s="38"/>
       <c r="N26" s="39"/>
       <c r="O26" s="70"/>
-      <c r="P26" s="75"/>
+      <c r="P26" s="110"/>
       <c r="Q26" s="56"/>
       <c r="R26" s="57"/>
       <c r="S26" s="38"/>
@@ -1999,7 +2028,7 @@
       <c r="Z26" s="39"/>
     </row>
     <row r="27" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="94"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -2013,7 +2042,7 @@
       <c r="M27" s="38"/>
       <c r="N27" s="39"/>
       <c r="O27" s="70"/>
-      <c r="P27" s="75"/>
+      <c r="P27" s="110"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="39"/>
       <c r="S27" s="38"/>
@@ -2026,7 +2055,7 @@
       <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="95"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
@@ -2040,7 +2069,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
       <c r="O28" s="71"/>
-      <c r="P28" s="76"/>
+      <c r="P28" s="111"/>
       <c r="Q28" s="40"/>
       <c r="R28" s="42"/>
       <c r="S28" s="41"/>
@@ -2053,7 +2082,7 @@
       <c r="Z28" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="W9:Z9"/>
     <mergeCell ref="C9:F9"/>
@@ -2068,16 +2097,17 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P11:P28"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="O9:R9"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="H8:O8"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="P11:P28"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N17:O17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
